--- a/code/files/PNtoDN.xlsx
+++ b/code/files/PNtoDN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="159">
   <si>
     <t>DN-PN</t>
   </si>
@@ -316,18 +316,6 @@
     <t>Н</t>
   </si>
   <si>
-    <t>53…90</t>
-  </si>
-  <si>
-    <t>85…100</t>
-  </si>
-  <si>
-    <t>8…40</t>
-  </si>
-  <si>
-    <t>16…63</t>
-  </si>
-  <si>
     <t>40...100</t>
   </si>
   <si>
@@ -373,9 +361,6 @@
     <t>30...54</t>
   </si>
   <si>
-    <t>50…63</t>
-  </si>
-  <si>
     <t>85...124</t>
   </si>
   <si>
@@ -412,15 +397,9 @@
     <t>40...50</t>
   </si>
   <si>
-    <t>50..58</t>
-  </si>
-  <si>
     <t>58...63</t>
   </si>
   <si>
-    <t>63..88</t>
-  </si>
-  <si>
     <t>88...105</t>
   </si>
   <si>
@@ -448,30 +427,15 @@
     <t>2.5...4</t>
   </si>
   <si>
-    <t>1.2…3</t>
-  </si>
-  <si>
     <t>0.5...1</t>
   </si>
   <si>
     <t>0.8...1.6</t>
   </si>
   <si>
-    <t>0.5…16</t>
-  </si>
-  <si>
     <t>1.5...3</t>
   </si>
   <si>
-    <t>2.5…4.5</t>
-  </si>
-  <si>
-    <t>4.5…8.5</t>
-  </si>
-  <si>
-    <t>0.5…1.5</t>
-  </si>
-  <si>
     <t>8...12</t>
   </si>
   <si>
@@ -484,31 +448,55 @@
     <t>18...25</t>
   </si>
   <si>
-    <t>25…35</t>
-  </si>
-  <si>
-    <t>35…40</t>
-  </si>
-  <si>
-    <t>1…2</t>
-  </si>
-  <si>
-    <t>2…3</t>
-  </si>
-  <si>
-    <t>3…5</t>
-  </si>
-  <si>
-    <t>5…7</t>
-  </si>
-  <si>
-    <t>7…9</t>
-  </si>
-  <si>
-    <t>9…12</t>
-  </si>
-  <si>
-    <t>12…16</t>
+    <t>53...90</t>
+  </si>
+  <si>
+    <t>85...100</t>
+  </si>
+  <si>
+    <t>1.2...3</t>
+  </si>
+  <si>
+    <t>2.5...4.5</t>
+  </si>
+  <si>
+    <t>4.5...8.5</t>
+  </si>
+  <si>
+    <t>0.5...1.5</t>
+  </si>
+  <si>
+    <t>35...40</t>
+  </si>
+  <si>
+    <t>1...2</t>
+  </si>
+  <si>
+    <t>2...3</t>
+  </si>
+  <si>
+    <t>5...7</t>
+  </si>
+  <si>
+    <t>7...9</t>
+  </si>
+  <si>
+    <t>9...12</t>
+  </si>
+  <si>
+    <t>0.5...16</t>
+  </si>
+  <si>
+    <t>8...40</t>
+  </si>
+  <si>
+    <t>16...63</t>
+  </si>
+  <si>
+    <t>63...88</t>
+  </si>
+  <si>
+    <t>50...58</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
@@ -1272,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1298,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1324,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -1350,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>8</v>
@@ -1376,7 +1364,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1402,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1428,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -1454,7 +1442,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
@@ -1480,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
@@ -1506,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
@@ -1532,7 +1520,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -1558,7 +1546,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
@@ -1584,7 +1572,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -1610,7 +1598,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
@@ -1636,7 +1624,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2">
         <v>14</v>
@@ -1662,7 +1650,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1688,7 +1676,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
@@ -1714,7 +1702,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2">
         <v>12</v>
@@ -1740,7 +1728,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
@@ -1766,7 +1754,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2">
         <v>14</v>
@@ -1792,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2">
         <v>15</v>
@@ -1818,7 +1806,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -1844,7 +1832,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2">
         <v>55</v>
@@ -1870,7 +1858,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2">
         <v>56</v>
@@ -1896,7 +1884,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2">
         <v>57</v>
@@ -1922,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="E28" s="2">
         <v>58</v>
@@ -1948,7 +1936,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E29" s="2">
         <v>58</v>
@@ -1974,7 +1962,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2">
         <v>59</v>
@@ -2000,7 +1988,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2">
         <v>60</v>
@@ -2026,7 +2014,7 @@
         <v>50</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2">
         <v>61</v>
@@ -2052,7 +2040,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2">
         <v>30</v>
@@ -2078,7 +2066,7 @@
         <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E34" s="2">
         <v>31</v>
@@ -2104,7 +2092,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2">
         <v>32</v>
@@ -2130,7 +2118,7 @@
         <v>80</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E36" s="2">
         <v>33</v>
@@ -2156,7 +2144,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E37" s="2">
         <v>34</v>
@@ -2182,7 +2170,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E38" s="2">
         <v>30</v>
@@ -2208,7 +2196,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E39" s="2">
         <v>31</v>
@@ -2234,7 +2222,7 @@
         <v>80</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2">
         <v>32</v>
@@ -2260,7 +2248,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41" s="2">
         <v>33</v>
@@ -2286,7 +2274,7 @@
         <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E42" s="2">
         <v>35</v>
@@ -2312,7 +2300,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E43" s="3">
         <v>36</v>
@@ -2338,7 +2326,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E44" s="2">
         <v>37</v>
@@ -2364,7 +2352,7 @@
         <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2">
         <v>38</v>
@@ -2390,7 +2378,7 @@
         <v>80</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2">
         <v>37</v>
@@ -2416,7 +2404,7 @@
         <v>80</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2">
         <v>39</v>
@@ -2442,7 +2430,7 @@
         <v>80</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2">
         <v>40</v>
@@ -2468,7 +2456,7 @@
         <v>100</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E49" s="2">
         <v>50</v>
@@ -2494,7 +2482,7 @@
         <v>100</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E50" s="2">
         <v>51</v>
@@ -2520,7 +2508,7 @@
         <v>100</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E51" s="2">
         <v>52</v>
@@ -2546,7 +2534,7 @@
         <v>100</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2">
         <v>53</v>
@@ -2572,7 +2560,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2">
         <v>54</v>
@@ -2598,7 +2586,7 @@
         <v>100</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2">
         <v>55</v>
@@ -2624,7 +2612,7 @@
         <v>100</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2">
         <v>55</v>
@@ -2650,7 +2638,7 @@
         <v>100</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2">
         <v>56</v>
@@ -2676,7 +2664,7 @@
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2">
         <v>57</v>
@@ -2702,7 +2690,7 @@
         <v>100</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2">
         <v>80</v>
@@ -2728,7 +2716,7 @@
         <v>100</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2">
         <v>81</v>
@@ -2754,7 +2742,7 @@
         <v>100</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2">
         <v>82</v>
@@ -2780,7 +2768,7 @@
         <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2">
         <v>83</v>
@@ -2806,7 +2794,7 @@
         <v>100</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="E62" s="4">
         <v>81</v>
@@ -2832,7 +2820,7 @@
         <v>100</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E63" s="5">
         <v>82</v>
@@ -2858,7 +2846,7 @@
         <v>100</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2">
         <v>83</v>
@@ -2884,7 +2872,7 @@
         <v>100</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2">
         <v>80</v>
@@ -2910,7 +2898,7 @@
         <v>100</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2">
         <v>81</v>
@@ -2936,7 +2924,7 @@
         <v>100</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E67" s="2">
         <v>82</v>
@@ -2962,7 +2950,7 @@
         <v>100</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2">
         <v>83</v>
@@ -2988,7 +2976,7 @@
         <v>150</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E69" s="2">
         <v>70</v>
@@ -3014,7 +3002,7 @@
         <v>150</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2">
         <v>71</v>
@@ -3040,7 +3028,7 @@
         <v>150</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2">
         <v>72</v>
@@ -3066,7 +3054,7 @@
         <v>150</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2">
         <v>73</v>
@@ -3092,7 +3080,7 @@
         <v>150</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2">
         <v>74</v>
@@ -3118,7 +3106,7 @@
         <v>150</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E74" s="2">
         <v>75</v>
@@ -3144,7 +3132,7 @@
         <v>150</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2">
         <v>74</v>
@@ -3170,7 +3158,7 @@
         <v>150</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E76" s="2">
         <v>75</v>
@@ -3196,7 +3184,7 @@
         <v>150</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E77" s="2">
         <v>76</v>
@@ -3222,7 +3210,7 @@
         <v>150</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2">
         <v>77</v>
@@ -3248,7 +3236,7 @@
         <v>150</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2">
         <v>78</v>
@@ -3274,7 +3262,7 @@
         <v>200</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2">
         <v>72</v>
@@ -3300,7 +3288,7 @@
         <v>200</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E81" s="2">
         <v>73</v>
@@ -3326,7 +3314,7 @@
         <v>200</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2">
         <v>74</v>
@@ -3352,7 +3340,7 @@
         <v>200</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2">
         <v>75</v>
@@ -3378,7 +3366,7 @@
         <v>200</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E84" s="2">
         <v>76</v>
@@ -3404,7 +3392,7 @@
         <v>200</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2">
         <v>77</v>
@@ -3430,7 +3418,7 @@
         <v>200</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2">
         <v>78</v>
@@ -3456,7 +3444,7 @@
         <v>200</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2">
         <v>79</v>
@@ -3482,7 +3470,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E88" s="30" t="s">
         <v>94</v>
@@ -3506,7 +3494,7 @@
         <v>50</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E89" s="31" t="s">
         <v>94</v>
@@ -3530,7 +3518,7 @@
         <v>80</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E90" s="31" t="s">
         <v>94</v>
@@ -3554,7 +3542,7 @@
         <v>100</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>94</v>
@@ -3578,7 +3566,7 @@
         <v>150</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E92" s="31" t="s">
         <v>94</v>
@@ -3602,7 +3590,7 @@
         <v>200</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E93" s="31" t="s">
         <v>94</v>
@@ -3626,7 +3614,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E94" s="31" t="s">
         <v>94</v>
@@ -3650,7 +3638,7 @@
         <v>50</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E95" s="31" t="s">
         <v>94</v>
@@ -3674,7 +3662,7 @@
         <v>80</v>
       </c>
       <c r="D96" s="44" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E96" s="31" t="s">
         <v>94</v>
@@ -3698,7 +3686,7 @@
         <v>100</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E97" s="31" t="s">
         <v>94</v>
@@ -3722,7 +3710,7 @@
         <v>150</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E98" s="31" t="s">
         <v>94</v>
@@ -3746,7 +3734,7 @@
         <v>200</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E99" s="31" t="s">
         <v>94</v>
@@ -3770,7 +3758,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E100" s="31" t="s">
         <v>94</v>
@@ -3794,7 +3782,7 @@
         <v>50</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E101" s="31" t="s">
         <v>94</v>
@@ -3818,7 +3806,7 @@
         <v>80</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E102" s="31" t="s">
         <v>94</v>
@@ -3842,7 +3830,7 @@
         <v>100</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E103" s="31" t="s">
         <v>94</v>
@@ -3866,7 +3854,7 @@
         <v>150</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>94</v>
@@ -3890,7 +3878,7 @@
         <v>200</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E105" s="31" t="s">
         <v>94</v>
@@ -3914,7 +3902,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E106" s="31" t="s">
         <v>94</v>
@@ -3938,7 +3926,7 @@
         <v>50</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E107" s="31" t="s">
         <v>94</v>
@@ -3962,7 +3950,7 @@
         <v>80</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>94</v>
@@ -3986,7 +3974,7 @@
         <v>100</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E109" s="31" t="s">
         <v>94</v>
@@ -4010,7 +3998,7 @@
         <v>150</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E110" s="31" t="s">
         <v>94</v>
@@ -4034,7 +4022,7 @@
         <v>200</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E111" s="31" t="s">
         <v>94</v>
@@ -4058,7 +4046,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E112" s="31" t="s">
         <v>94</v>
@@ -4082,7 +4070,7 @@
         <v>50</v>
       </c>
       <c r="D113" s="41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>94</v>
@@ -4106,7 +4094,7 @@
         <v>80</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E114" s="31" t="s">
         <v>94</v>
@@ -4130,7 +4118,7 @@
         <v>100</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E115" s="31" t="s">
         <v>94</v>
@@ -4154,7 +4142,7 @@
         <v>150</v>
       </c>
       <c r="D116" s="41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E116" s="31" t="s">
         <v>94</v>
@@ -4178,7 +4166,7 @@
         <v>200</v>
       </c>
       <c r="D117" s="46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E117" s="32" t="s">
         <v>94</v>

--- a/code/files/PNtoDN.xlsx
+++ b/code/files/PNtoDN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="159">
   <si>
     <t>DN-PN</t>
   </si>
@@ -1181,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,25 +1511,25 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B13" s="9">
-        <v>16</v>
-      </c>
-      <c r="C13" s="9">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="22">
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>96</v>
@@ -1537,25 +1537,25 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>33</v>
-      </c>
-      <c r="B14" s="11">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="9">
+        <v>40</v>
+      </c>
+      <c r="C14" s="23">
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>96</v>
@@ -1563,77 +1563,77 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>40</v>
+      </c>
+      <c r="C15" s="23">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>40</v>
+      </c>
+      <c r="C16" s="24">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>33</v>
       </c>
-      <c r="B15" s="11">
-        <v>16</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="2">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11">
-        <v>16</v>
-      </c>
-      <c r="C16" s="11">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>33</v>
-      </c>
-      <c r="B17" s="20">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20">
-        <v>50</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>96</v>
@@ -1644,22 +1644,22 @@
         <v>33</v>
       </c>
       <c r="B18" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11">
         <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>8</v>
+      <c r="G18" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H18" s="28" t="s">
         <v>96</v>
@@ -1670,22 +1670,22 @@
         <v>33</v>
       </c>
       <c r="B19" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11">
         <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>39</v>
+      <c r="G19" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>96</v>
@@ -1696,48 +1696,48 @@
         <v>33</v>
       </c>
       <c r="B20" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C20" s="11">
         <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>40</v>
+      <c r="G20" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H20" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="19">
         <v>33</v>
       </c>
-      <c r="B21" s="11">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="20">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
         <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>41</v>
+      <c r="G21" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>96</v>
@@ -1754,16 +1754,16 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>96</v>
@@ -1780,16 +1780,16 @@
         <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>96</v>
@@ -1806,146 +1806,146 @@
         <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>33</v>
       </c>
-      <c r="B25" s="9">
-        <v>63</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="11">
+        <v>40</v>
+      </c>
+      <c r="C25" s="11">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>33</v>
       </c>
       <c r="B26" s="11">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C26" s="11">
         <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H26" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>33</v>
       </c>
       <c r="B27" s="11">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C27" s="11">
         <v>50</v>
       </c>
-      <c r="D27" s="47" t="s">
-        <v>121</v>
+      <c r="D27" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E27" s="2">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+      <c r="A28" s="10">
         <v>33</v>
       </c>
-      <c r="B28" s="31">
-        <v>100</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="B28" s="11">
+        <v>40</v>
+      </c>
+      <c r="C28" s="11">
         <v>50</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>142</v>
+      <c r="D28" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E28" s="2">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+      <c r="A29" s="9">
         <v>33</v>
       </c>
-      <c r="B29" s="31">
-        <v>100</v>
-      </c>
-      <c r="C29" s="31">
+      <c r="B29" s="9">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9">
         <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>96</v>
@@ -1956,22 +1956,22 @@
         <v>33</v>
       </c>
       <c r="B30" s="11">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C30" s="11">
         <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>96</v>
@@ -1982,152 +1982,152 @@
         <v>33</v>
       </c>
       <c r="B31" s="11">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C31" s="11">
         <v>50</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="2">
+        <v>57</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>33</v>
+      </c>
+      <c r="B32" s="31">
+        <v>100</v>
+      </c>
+      <c r="C32" s="31">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="2">
+        <v>58</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
+        <v>33</v>
+      </c>
+      <c r="B33" s="31">
+        <v>100</v>
+      </c>
+      <c r="C33" s="31">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="2">
+        <v>58</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>160</v>
+      </c>
+      <c r="C34" s="11">
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="2">
+        <v>59</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11">
+        <v>160</v>
+      </c>
+      <c r="C35" s="11">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E35" s="2">
         <v>60</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+      <c r="H35" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
         <v>33</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B36" s="20">
         <v>160</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C36" s="20">
         <v>50</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E36" s="2">
         <v>61</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="13" t="s">
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>40</v>
-      </c>
-      <c r="B33" s="11">
-        <v>16</v>
-      </c>
-      <c r="C33" s="11">
-        <v>80</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="2">
-        <v>30</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>40</v>
-      </c>
-      <c r="B34" s="11">
-        <v>16</v>
-      </c>
-      <c r="C34" s="11">
-        <v>80</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="2">
-        <v>31</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>40</v>
-      </c>
-      <c r="B35" s="11">
-        <v>16</v>
-      </c>
-      <c r="C35" s="11">
-        <v>80</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="2">
-        <v>32</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>40</v>
-      </c>
-      <c r="B36" s="11">
-        <v>16</v>
-      </c>
-      <c r="C36" s="11">
-        <v>80</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="2">
-        <v>33</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="H36" s="28" t="s">
         <v>96</v>
@@ -2144,42 +2144,42 @@
         <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E37" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H37" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>40</v>
-      </c>
-      <c r="C38" s="22">
+      <c r="A38" s="10">
+        <v>40</v>
+      </c>
+      <c r="B38" s="11">
+        <v>16</v>
+      </c>
+      <c r="C38" s="11">
         <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E38" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H38" s="28" t="s">
         <v>96</v>
@@ -2190,22 +2190,22 @@
         <v>40</v>
       </c>
       <c r="B39" s="11">
-        <v>40</v>
-      </c>
-      <c r="C39" s="23">
+        <v>16</v>
+      </c>
+      <c r="C39" s="11">
         <v>80</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E39" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>96</v>
@@ -2216,22 +2216,22 @@
         <v>40</v>
       </c>
       <c r="B40" s="11">
-        <v>40</v>
-      </c>
-      <c r="C40" s="23">
+        <v>16</v>
+      </c>
+      <c r="C40" s="11">
         <v>80</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E40" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H40" s="28" t="s">
         <v>96</v>
@@ -2242,48 +2242,48 @@
         <v>40</v>
       </c>
       <c r="B41" s="11">
-        <v>40</v>
-      </c>
-      <c r="C41" s="23">
+        <v>16</v>
+      </c>
+      <c r="C41" s="11">
         <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H41" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="11">
-        <v>40</v>
-      </c>
-      <c r="C42" s="23">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="22">
         <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H42" s="28" t="s">
         <v>96</v>
@@ -2299,69 +2299,69 @@
       <c r="C43" s="23">
         <v>80</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="3">
-        <v>36</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="2">
+        <v>31</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H43" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
-        <v>40</v>
-      </c>
-      <c r="B44" s="20">
-        <v>40</v>
-      </c>
-      <c r="C44" s="24">
+      <c r="A44" s="10">
+        <v>40</v>
+      </c>
+      <c r="B44" s="11">
+        <v>40</v>
+      </c>
+      <c r="C44" s="23">
         <v>80</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E44" s="2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H44" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>40</v>
-      </c>
-      <c r="B45" s="9">
-        <v>63</v>
-      </c>
-      <c r="C45" s="22">
+      <c r="A45" s="10">
+        <v>40</v>
+      </c>
+      <c r="B45" s="11">
+        <v>40</v>
+      </c>
+      <c r="C45" s="23">
         <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H45" s="28" t="s">
         <v>96</v>
@@ -2372,22 +2372,22 @@
         <v>40</v>
       </c>
       <c r="B46" s="11">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C46" s="23">
         <v>80</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H46" s="28" t="s">
         <v>96</v>
@@ -2398,22 +2398,22 @@
         <v>40</v>
       </c>
       <c r="B47" s="11">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C47" s="23">
         <v>80</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="2">
-        <v>39</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
+      <c r="D47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="3">
+        <v>36</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H47" s="28" t="s">
         <v>96</v>
@@ -2424,22 +2424,22 @@
         <v>40</v>
       </c>
       <c r="B48" s="20">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C48" s="24">
         <v>80</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H48" s="28" t="s">
         <v>96</v>
@@ -2447,25 +2447,25 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B49" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C49" s="22">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E49" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>96</v>
@@ -2473,25 +2473,25 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B50" s="11">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C50" s="23">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E50" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H50" s="28" t="s">
         <v>96</v>
@@ -2499,129 +2499,129 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
+        <v>40</v>
+      </c>
+      <c r="B51" s="11">
+        <v>63</v>
+      </c>
+      <c r="C51" s="23">
+        <v>80</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="2">
+        <v>39</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>40</v>
+      </c>
+      <c r="B52" s="20">
+        <v>63</v>
+      </c>
+      <c r="C52" s="24">
+        <v>80</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="2">
+        <v>40</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
         <v>48</v>
       </c>
-      <c r="B51" s="11">
-        <v>16</v>
-      </c>
-      <c r="C51" s="23">
-        <v>100</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B53" s="9">
+        <v>16</v>
+      </c>
+      <c r="C53" s="22">
+        <v>100</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="2">
+        <v>50</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>48</v>
+      </c>
+      <c r="B54" s="11">
+        <v>16</v>
+      </c>
+      <c r="C54" s="23">
+        <v>100</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2">
+        <v>51</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>48</v>
+      </c>
+      <c r="B55" s="11">
+        <v>16</v>
+      </c>
+      <c r="C55" s="23">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E55" s="2">
         <v>52</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="13" t="s">
+      <c r="F55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
-        <v>48</v>
-      </c>
-      <c r="B52" s="11">
-        <v>16</v>
-      </c>
-      <c r="C52" s="23">
-        <v>100</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="2">
-        <v>53</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
-        <v>48</v>
-      </c>
-      <c r="B53" s="11">
-        <v>16</v>
-      </c>
-      <c r="C53" s="23">
-        <v>100</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" s="2">
-        <v>54</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19">
-        <v>48</v>
-      </c>
-      <c r="B54" s="20">
-        <v>16</v>
-      </c>
-      <c r="C54" s="24">
-        <v>100</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="2">
-        <v>55</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>48</v>
-      </c>
-      <c r="B55" s="9">
-        <v>40</v>
-      </c>
-      <c r="C55" s="22">
-        <v>100</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="2">
-        <v>55</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>96</v>
@@ -2632,100 +2632,100 @@
         <v>48</v>
       </c>
       <c r="B56" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C56" s="23">
         <v>100</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>122</v>
+      <c r="D56" s="48" t="s">
+        <v>145</v>
       </c>
       <c r="E56" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19">
+      <c r="A57" s="10">
         <v>48</v>
       </c>
-      <c r="B57" s="20">
-        <v>40</v>
-      </c>
-      <c r="C57" s="24">
-        <v>100</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>123</v>
+      <c r="B57" s="11">
+        <v>16</v>
+      </c>
+      <c r="C57" s="23">
+        <v>100</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="E57" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="A58" s="19">
         <v>48</v>
       </c>
-      <c r="B58" s="9">
-        <v>160</v>
-      </c>
-      <c r="C58" s="22">
+      <c r="B58" s="20">
+        <v>16</v>
+      </c>
+      <c r="C58" s="24">
         <v>100</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H58" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="A59" s="8">
         <v>48</v>
       </c>
-      <c r="B59" s="11">
-        <v>160</v>
-      </c>
-      <c r="C59" s="23">
+      <c r="B59" s="9">
+        <v>40</v>
+      </c>
+      <c r="C59" s="22">
         <v>100</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="13" t="s">
-        <v>75</v>
+      <c r="G59" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="H59" s="28" t="s">
         <v>96</v>
@@ -2736,22 +2736,22 @@
         <v>48</v>
       </c>
       <c r="B60" s="11">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C60" s="23">
         <v>100</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>76</v>
+      <c r="G60" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="H60" s="28" t="s">
         <v>96</v>
@@ -2762,22 +2762,22 @@
         <v>48</v>
       </c>
       <c r="B61" s="20">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C61" s="24">
         <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="13" t="s">
-        <v>77</v>
+      <c r="G61" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="H61" s="28" t="s">
         <v>96</v>
@@ -2785,25 +2785,25 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B62" s="9">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C62" s="22">
         <v>100</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="4">
-        <v>81</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>18</v>
+      <c r="D62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2">
+        <v>80</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H62" s="28" t="s">
         <v>96</v>
@@ -2811,103 +2811,103 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
+        <v>48</v>
+      </c>
+      <c r="B63" s="11">
+        <v>160</v>
+      </c>
+      <c r="C63" s="23">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="2">
+        <v>81</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>48</v>
+      </c>
+      <c r="B64" s="11">
+        <v>160</v>
+      </c>
+      <c r="C64" s="23">
+        <v>100</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="2">
+        <v>82</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
+        <v>48</v>
+      </c>
+      <c r="B65" s="20">
+        <v>160</v>
+      </c>
+      <c r="C65" s="24">
+        <v>100</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="2">
+        <v>83</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>56</v>
       </c>
-      <c r="B63" s="11">
-        <v>100</v>
-      </c>
-      <c r="C63" s="23">
-        <v>100</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="5">
-        <v>82</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19">
-        <v>56</v>
-      </c>
-      <c r="B64" s="20">
-        <v>100</v>
-      </c>
-      <c r="C64" s="24">
-        <v>100</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="2">
-        <v>83</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
-        <v>72</v>
-      </c>
-      <c r="B65" s="9">
-        <v>63</v>
-      </c>
-      <c r="C65" s="22">
-        <v>100</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="2">
-        <v>80</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
-        <v>72</v>
-      </c>
-      <c r="B66" s="11">
-        <v>63</v>
-      </c>
-      <c r="C66" s="23">
-        <v>100</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="B66" s="9">
+        <v>100</v>
+      </c>
+      <c r="C66" s="22">
+        <v>100</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="4">
         <v>81</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>70</v>
+      <c r="F66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H66" s="28" t="s">
         <v>96</v>
@@ -2915,25 +2915,25 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B67" s="11">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C67" s="23">
         <v>100</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="5">
         <v>82</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>71</v>
+      <c r="F67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="H67" s="28" t="s">
         <v>96</v>
@@ -2941,16 +2941,16 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B68" s="20">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C68" s="24">
         <v>100</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2">
         <v>83</v>
@@ -2958,8 +2958,8 @@
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>72</v>
+      <c r="G68" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="H68" s="28" t="s">
         <v>96</v>
@@ -2967,25 +2967,25 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B69" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C69" s="22">
-        <v>150</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E69" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="H69" s="28" t="s">
         <v>96</v>
@@ -2993,25 +2993,25 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B70" s="11">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C70" s="23">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="H70" s="28" t="s">
         <v>96</v>
@@ -3019,77 +3019,77 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
+        <v>72</v>
+      </c>
+      <c r="B71" s="11">
+        <v>63</v>
+      </c>
+      <c r="C71" s="23">
+        <v>100</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="2">
+        <v>82</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
+        <v>72</v>
+      </c>
+      <c r="B72" s="20">
+        <v>63</v>
+      </c>
+      <c r="C72" s="24">
+        <v>100</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="2">
+        <v>83</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
         <v>75</v>
       </c>
-      <c r="B71" s="11">
-        <v>16</v>
-      </c>
-      <c r="C71" s="23">
+      <c r="B73" s="9">
+        <v>16</v>
+      </c>
+      <c r="C73" s="22">
         <v>150</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="2">
-        <v>72</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10">
-        <v>75</v>
-      </c>
-      <c r="B72" s="11">
-        <v>16</v>
-      </c>
-      <c r="C72" s="23">
-        <v>150</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="2">
-        <v>73</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
-        <v>75</v>
-      </c>
-      <c r="B73" s="11">
-        <v>16</v>
-      </c>
-      <c r="C73" s="23">
-        <v>150</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>138</v>
+      <c r="D73" s="48" t="s">
+        <v>147</v>
       </c>
       <c r="E73" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H73" s="28" t="s">
         <v>96</v>
@@ -3106,42 +3106,42 @@
         <v>150</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2">
+        <v>71</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
         <v>75</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>75</v>
-      </c>
-      <c r="B75" s="9">
-        <v>40</v>
-      </c>
-      <c r="C75" s="22">
+      <c r="B75" s="11">
+        <v>16</v>
+      </c>
+      <c r="C75" s="23">
         <v>150</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H75" s="28" t="s">
         <v>96</v>
@@ -3152,22 +3152,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C76" s="23">
         <v>150</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H76" s="28" t="s">
         <v>96</v>
@@ -3178,22 +3178,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C77" s="23">
         <v>150</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H77" s="28" t="s">
         <v>96</v>
@@ -3204,48 +3204,48 @@
         <v>75</v>
       </c>
       <c r="B78" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C78" s="23">
         <v>150</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H78" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19">
+      <c r="A79" s="8">
         <v>75</v>
       </c>
-      <c r="B79" s="20">
-        <v>40</v>
-      </c>
-      <c r="C79" s="24">
+      <c r="B79" s="9">
+        <v>40</v>
+      </c>
+      <c r="C79" s="22">
         <v>150</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="H79" s="28" t="s">
         <v>96</v>
@@ -3253,25 +3253,25 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B80" s="11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C80" s="23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E80" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H80" s="28" t="s">
         <v>96</v>
@@ -3279,25 +3279,25 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B81" s="11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C81" s="23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E81" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H81" s="28" t="s">
         <v>96</v>
@@ -3305,51 +3305,51 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B82" s="11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C82" s="23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19">
+        <v>75</v>
+      </c>
+      <c r="B83" s="20">
+        <v>40</v>
+      </c>
+      <c r="C83" s="24">
         <v>150</v>
       </c>
-      <c r="E82" s="2">
-        <v>74</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
-        <v>142</v>
-      </c>
-      <c r="B83" s="11">
-        <v>16</v>
-      </c>
-      <c r="C83" s="23">
-        <v>200</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H83" s="28" t="s">
         <v>96</v>
@@ -3366,16 +3366,16 @@
         <v>200</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="H84" s="28" t="s">
         <v>96</v>
@@ -3392,16 +3392,16 @@
         <v>200</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H85" s="28" t="s">
         <v>96</v>
@@ -3418,176 +3418,184 @@
         <v>200</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E86" s="2">
+        <v>74</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10">
+        <v>142</v>
+      </c>
+      <c r="B87" s="11">
+        <v>16</v>
+      </c>
+      <c r="C87" s="23">
+        <v>200</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
+        <v>142</v>
+      </c>
+      <c r="B88" s="11">
+        <v>16</v>
+      </c>
+      <c r="C88" s="23">
+        <v>200</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="2">
+        <v>76</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10">
+        <v>142</v>
+      </c>
+      <c r="B89" s="11">
+        <v>16</v>
+      </c>
+      <c r="C89" s="23">
+        <v>200</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>142</v>
+      </c>
+      <c r="B90" s="11">
+        <v>16</v>
+      </c>
+      <c r="C90" s="23">
+        <v>200</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E90" s="2">
         <v>78</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="13" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H86" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19">
+      <c r="H90" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19">
         <v>142</v>
       </c>
-      <c r="B87" s="20">
-        <v>16</v>
-      </c>
-      <c r="C87" s="24">
+      <c r="B91" s="20">
+        <v>16</v>
+      </c>
+      <c r="C91" s="24">
         <v>200</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E91" s="2">
         <v>79</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="17" t="s">
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H87" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="36">
-        <v>25</v>
-      </c>
-      <c r="B88" s="37">
-        <v>16</v>
-      </c>
-      <c r="C88" s="36">
-        <v>25</v>
-      </c>
-      <c r="D88" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="36">
-        <v>49</v>
-      </c>
-      <c r="B89" s="38">
-        <v>16</v>
-      </c>
-      <c r="C89" s="36">
-        <v>50</v>
-      </c>
-      <c r="D89" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="31"/>
-      <c r="H89" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="36">
-        <v>78</v>
-      </c>
-      <c r="B90" s="38">
-        <v>16</v>
-      </c>
-      <c r="C90" s="36">
-        <v>80</v>
-      </c>
-      <c r="D90" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90" s="31"/>
-      <c r="H90" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="36">
-        <v>96</v>
-      </c>
-      <c r="B91" s="38">
-        <v>16</v>
-      </c>
-      <c r="C91" s="36">
-        <v>100</v>
-      </c>
-      <c r="D91" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="34" t="s">
-        <v>97</v>
+      <c r="H91" s="28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="36">
-        <v>146</v>
-      </c>
-      <c r="B92" s="38">
+        <v>25</v>
+      </c>
+      <c r="B92" s="37">
         <v>16</v>
       </c>
       <c r="C92" s="36">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="D92" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="34" t="s">
+      <c r="F92" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="9"/>
+      <c r="H92" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="36">
-        <v>200</v>
-      </c>
-      <c r="B93" s="39">
+        <v>49</v>
+      </c>
+      <c r="B93" s="38">
         <v>16</v>
       </c>
       <c r="C93" s="36">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D93" s="42" t="s">
         <v>154</v>
@@ -3605,16 +3613,16 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="36">
-        <v>25</v>
-      </c>
-      <c r="B94" s="37">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="B94" s="38">
+        <v>16</v>
       </c>
       <c r="C94" s="36">
-        <v>25</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>155</v>
+        <v>80</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="E94" s="31" t="s">
         <v>94</v>
@@ -3629,16 +3637,16 @@
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B95" s="38">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C95" s="36">
-        <v>50</v>
-      </c>
-      <c r="D95" s="44" t="s">
-        <v>155</v>
+        <v>100</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="E95" s="31" t="s">
         <v>94</v>
@@ -3653,16 +3661,16 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="36">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="B96" s="38">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C96" s="36">
-        <v>80</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="E96" s="31" t="s">
         <v>94</v>
@@ -3677,16 +3685,16 @@
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36">
-        <v>96</v>
-      </c>
-      <c r="B97" s="38">
-        <v>40</v>
+        <v>200</v>
+      </c>
+      <c r="B97" s="39">
+        <v>16</v>
       </c>
       <c r="C97" s="36">
-        <v>100</v>
-      </c>
-      <c r="D97" s="44" t="s">
-        <v>155</v>
+        <v>200</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="E97" s="31" t="s">
         <v>94</v>
@@ -3701,15 +3709,15 @@
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="36">
-        <v>145</v>
-      </c>
-      <c r="B98" s="38">
+        <v>25</v>
+      </c>
+      <c r="B98" s="37">
         <v>40</v>
       </c>
       <c r="C98" s="36">
-        <v>150</v>
-      </c>
-      <c r="D98" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="43" t="s">
         <v>155</v>
       </c>
       <c r="E98" s="31" t="s">
@@ -3725,15 +3733,15 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36">
-        <v>200</v>
-      </c>
-      <c r="B99" s="39">
+        <v>48</v>
+      </c>
+      <c r="B99" s="38">
         <v>40</v>
       </c>
       <c r="C99" s="36">
-        <v>200</v>
-      </c>
-      <c r="D99" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="44" t="s">
         <v>155</v>
       </c>
       <c r="E99" s="31" t="s">
@@ -3749,16 +3757,16 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36">
-        <v>25</v>
-      </c>
-      <c r="B100" s="37">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="B100" s="38">
+        <v>40</v>
       </c>
       <c r="C100" s="36">
-        <v>25</v>
-      </c>
-      <c r="D100" s="40" t="s">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="E100" s="31" t="s">
         <v>94</v>
@@ -3773,16 +3781,16 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B101" s="38">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C101" s="36">
-        <v>50</v>
-      </c>
-      <c r="D101" s="40" t="s">
-        <v>156</v>
+        <v>100</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="E101" s="31" t="s">
         <v>94</v>
@@ -3797,16 +3805,16 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="B102" s="38">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C102" s="36">
-        <v>80</v>
-      </c>
-      <c r="D102" s="40" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="E102" s="31" t="s">
         <v>94</v>
@@ -3821,16 +3829,16 @@
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36">
-        <v>94</v>
-      </c>
-      <c r="B103" s="38">
-        <v>63</v>
+        <v>200</v>
+      </c>
+      <c r="B103" s="39">
+        <v>40</v>
       </c>
       <c r="C103" s="36">
-        <v>100</v>
-      </c>
-      <c r="D103" s="40" t="s">
-        <v>156</v>
+        <v>200</v>
+      </c>
+      <c r="D103" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="E103" s="31" t="s">
         <v>94</v>
@@ -3845,13 +3853,13 @@
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="36">
-        <v>142</v>
-      </c>
-      <c r="B104" s="38">
+        <v>25</v>
+      </c>
+      <c r="B104" s="37">
         <v>63</v>
       </c>
       <c r="C104" s="36">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="D104" s="40" t="s">
         <v>156</v>
@@ -3869,13 +3877,13 @@
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="36">
-        <v>198</v>
-      </c>
-      <c r="B105" s="39">
+        <v>47</v>
+      </c>
+      <c r="B105" s="38">
         <v>63</v>
       </c>
       <c r="C105" s="36">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D105" s="40" t="s">
         <v>156</v>
@@ -3893,16 +3901,16 @@
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="36">
-        <v>25</v>
-      </c>
-      <c r="B106" s="37">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="B106" s="38">
+        <v>63</v>
       </c>
       <c r="C106" s="36">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E106" s="31" t="s">
         <v>94</v>
@@ -3917,16 +3925,16 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="36">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B107" s="38">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C107" s="36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E107" s="31" t="s">
         <v>94</v>
@@ -3941,16 +3949,16 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="36">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B108" s="38">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C108" s="36">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>94</v>
@@ -3965,16 +3973,16 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="36">
-        <v>92</v>
-      </c>
-      <c r="B109" s="38">
-        <v>100</v>
+        <v>198</v>
+      </c>
+      <c r="B109" s="39">
+        <v>63</v>
       </c>
       <c r="C109" s="36">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E109" s="31" t="s">
         <v>94</v>
@@ -3989,13 +3997,13 @@
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="36">
-        <v>136</v>
-      </c>
-      <c r="B110" s="38">
+        <v>25</v>
+      </c>
+      <c r="B110" s="37">
         <v>100</v>
       </c>
       <c r="C110" s="36">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="D110" s="40" t="s">
         <v>98</v>
@@ -4013,13 +4021,13 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="36">
-        <v>190</v>
-      </c>
-      <c r="B111" s="39">
+        <v>45</v>
+      </c>
+      <c r="B111" s="38">
         <v>100</v>
       </c>
       <c r="C111" s="36">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D111" s="40" t="s">
         <v>98</v>
@@ -4037,16 +4045,16 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="36">
-        <v>25</v>
-      </c>
-      <c r="B112" s="37">
-        <v>160</v>
+        <v>75</v>
+      </c>
+      <c r="B112" s="38">
+        <v>100</v>
       </c>
       <c r="C112" s="36">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E112" s="31" t="s">
         <v>94</v>
@@ -4061,16 +4069,16 @@
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="36">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B113" s="38">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="C113" s="36">
-        <v>50</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>94</v>
@@ -4085,16 +4093,16 @@
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="36">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B114" s="38">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="C114" s="36">
-        <v>80</v>
-      </c>
-      <c r="D114" s="41" t="s">
-        <v>99</v>
+        <v>150</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="E114" s="31" t="s">
         <v>94</v>
@@ -4109,16 +4117,16 @@
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="36">
-        <v>92</v>
-      </c>
-      <c r="B115" s="38">
-        <v>160</v>
+        <v>190</v>
+      </c>
+      <c r="B115" s="39">
+        <v>100</v>
       </c>
       <c r="C115" s="36">
-        <v>100</v>
-      </c>
-      <c r="D115" s="41" t="s">
-        <v>99</v>
+        <v>200</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="E115" s="31" t="s">
         <v>94</v>
@@ -4133,15 +4141,15 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="36">
-        <v>136</v>
-      </c>
-      <c r="B116" s="38">
+        <v>25</v>
+      </c>
+      <c r="B116" s="37">
         <v>160</v>
       </c>
       <c r="C116" s="36">
-        <v>150</v>
-      </c>
-      <c r="D116" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="40" t="s">
         <v>99</v>
       </c>
       <c r="E116" s="31" t="s">
@@ -4157,25 +4165,121 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="36">
+        <v>45</v>
+      </c>
+      <c r="B117" s="38">
+        <v>160</v>
+      </c>
+      <c r="C117" s="36">
+        <v>50</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F117" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" s="31"/>
+      <c r="H117" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="36">
+        <v>75</v>
+      </c>
+      <c r="B118" s="38">
+        <v>160</v>
+      </c>
+      <c r="C118" s="36">
+        <v>80</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" s="31"/>
+      <c r="H118" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="36">
+        <v>92</v>
+      </c>
+      <c r="B119" s="38">
+        <v>160</v>
+      </c>
+      <c r="C119" s="36">
+        <v>100</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="31"/>
+      <c r="H119" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="36">
+        <v>136</v>
+      </c>
+      <c r="B120" s="38">
+        <v>160</v>
+      </c>
+      <c r="C120" s="36">
+        <v>150</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" s="31"/>
+      <c r="H120" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="36">
         <v>190</v>
       </c>
-      <c r="B117" s="39">
+      <c r="B121" s="39">
         <v>160</v>
       </c>
-      <c r="C117" s="36">
+      <c r="C121" s="36">
         <v>200</v>
       </c>
-      <c r="D117" s="46" t="s">
+      <c r="D121" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E117" s="32" t="s">
+      <c r="E121" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F117" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G117" s="32"/>
-      <c r="H117" s="35" t="s">
+      <c r="F121" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="32"/>
+      <c r="H121" s="35" t="s">
         <v>97</v>
       </c>
     </row>
